--- a/InstructionAnalysis.xlsx
+++ b/InstructionAnalysis.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
   <si>
     <t>Instruction Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BNQZ or BTNQZ which works when the output from ALU is 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MemRead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,14 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ImmLen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00 -&gt; 8bits 01 -&gt; 5bits 10 -&gt; 3bits 11 -&gt; 11bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JumpDst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,6 +553,177 @@
   </si>
   <si>
     <t>set to 1 to hold RA, set to 0 to set RA &lt;- RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11** -&gt; imm 00 -&gt; 8bits 01 -&gt; 5bits 10 -&gt; 3bits 11 -&gt; 4bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0*** -&gt; universal reg, 1000 -&gt; None, 1001 -&gt; SP, 1010 -&gt; IH, 1011 -&gt; T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first source of ALU, 0*** -&gt; universal reg, 1000 -&gt; None, 1001 -&gt; SP, 1010 -&gt; IH, 1011 -&gt; T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memwrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmExtend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpposeBranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;(ari)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNQZ or BTNQZ which works when the output is 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,21 +775,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -936,1386 +1095,1699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="17" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="2.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="3"/>
+    <col min="19" max="19" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.88671875" style="3"/>
+    <col min="25" max="26" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>0</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>1</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="s">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
         <v>1</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
         <v>0</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
         <v>1</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
       <c r="R29" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
         <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
       <c r="R31" s="3" t="s">
         <v>97</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2384,17 +2856,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,106 +2899,220 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>124</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/InstructionAnalysis.xlsx
+++ b/InstructionAnalysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
   <si>
     <t>Instruction Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,246 +484,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MemRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set to 1 when reading memory, the addr will be the output of ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set to 1 when writing memory, the addr will be the output of ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set to 1 when the writing back value is from memory, set to 0 when is from ALU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set to 1 when the second operator is imm, set to 0 when is reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmExtend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set to 1 when zero_extend, set to 1 when sign_extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 -&gt; B 01 -&gt; BNQZ/BTNQZ/BEQZ 10 -&gt; JR 11 -&gt; JRRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set to 1 to hold RA, set to 0 to set RA &lt;- RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11** -&gt; imm 00 -&gt; 8bits 01 -&gt; 5bits 10 -&gt; 3bits 11 -&gt; 4bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0*** -&gt; universal reg, 1000 -&gt; None, 1001 -&gt; SP, 1010 -&gt; IH, 1011 -&gt; T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first source of ALU, 0*** -&gt; universal reg, 1000 -&gt; None, 1001 -&gt; SP, 1010 -&gt; IH, 1011 -&gt; T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memwrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImmExtend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUSrc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpDst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpposeBranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;(ari)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNQZ or BTNQZ which works when the output is 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>branch instruction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MemRead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set to 1 when reading memory, the addr will be the output of ALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set to 1 when writing memory, the addr will be the output of ALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set to 1 when the writing back value is from memory, set to 0 when is from ALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUSrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set to 1 when the second operator is imm, set to 0 when is reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImmExtend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set to 1 when zero_extend, set to 1 when sign_extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00 -&gt; B 01 -&gt; BNQZ/BTNQZ/BEQZ 10 -&gt; JR 11 -&gt; JRRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set to 1 to hold RA, set to 0 to set RA &lt;- RPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUSrc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUSrc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11** -&gt; imm 00 -&gt; 8bits 01 -&gt; 5bits 10 -&gt; 3bits 11 -&gt; 4bits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0*** -&gt; universal reg, 1000 -&gt; None, 1001 -&gt; SP, 1010 -&gt; IH, 1011 -&gt; T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>first source of ALU, 0*** -&gt; universal reg, 1000 -&gt; None, 1001 -&gt; SP, 1010 -&gt; IH, 1011 -&gt; T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memwrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUSrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImmExtend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUSrc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUSrc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Branch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpDst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpposeBranch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;(ari)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BNQZ or BTNQZ which works when the output is 0</t>
+    <t>Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear when jump failed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,43 +1147,43 @@
         <v>5</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -1226,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -1249,12 +1253,12 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1277,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -1328,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1389,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -1440,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -1493,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -1546,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1603,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -1660,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1721,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -1782,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1839,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -1900,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -1965,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2010,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2057,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2104,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2151,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2200,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2247,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2308,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2369,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2434,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2487,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2540,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2589,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2636,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2683,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2740,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2787,23 +2791,38 @@
         <v>0</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:Q19"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:Q20"/>
@@ -2820,33 +2839,18 @@
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2888,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2899,128 +2903,139 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>107</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3045,74 +3060,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/InstructionAnalysis.xlsx
+++ b/InstructionAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="165">
   <si>
     <t>Instruction Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,14 +720,6 @@
   </si>
   <si>
     <t>branch instruction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clear when jump failed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2796,17 +2788,34 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M26:O26"/>
@@ -2823,34 +2832,17 @@
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:Q31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2908,133 +2900,122 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
         <v>125</v>
       </c>
     </row>
